--- a/GUI + Reviews/202512/Review 202512/Dataiku/EUREP_EMS_2025-12-11_2025-12-11-23-29-39.xlsx
+++ b/GUI + Reviews/202512/Review 202512/Dataiku/EUREP_EMS_2025-12-11_2025-12-11-23-29-39.xlsx
@@ -1,17 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202512/Review 202512/Dataiku/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_06E32A6950EB6137A59DCD7639243A05E7961587" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9799DD8C-06C6-45A9-81B9-94883D6BC418}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-29370" yWindow="195" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="selection" sheetId="1" r:id="rId1"/>
     <sheet name="inclusion" sheetId="2" r:id="rId2"/>
     <sheet name="exclusion" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -621,8 +643,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -685,13 +707,488 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Index Composition"/>
+      <sheetName val="Eligible Companies"/>
+      <sheetName val="Inclusion"/>
+      <sheetName val="Exclusion"/>
+      <sheetName val="Full Universe"/>
+      <sheetName val="Index Market Cap"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>US0042391096</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>US0084921008</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>US0152711091</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>US3981823038</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>US02665T3068</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>US03027X1000</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>US03064D1081</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>US03784Y2000</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>US0534841012</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>US11120U1051</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>US11135E2037</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>US1011211018</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>US1331311027</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>US14174T1079</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>US12504L1098</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>US20464U1007</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>US22002T1088</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>US22160N1090</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v>US2227955026</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
+            <v>US22822V1017</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>US2296631094</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>US2538681030</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v>US2772761019</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25" t="str">
+            <v>US26884U1097</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26" t="str">
+            <v>US29444U7000</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>US29472R1086</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v>US29476L1070</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>US29670E1073</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="str">
+            <v>US2971781057</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>US30225T1025</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>US3137451015</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33" t="str">
+            <v>US3149111086</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>US32054K1034</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="str">
+            <v>US35086T1097</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36" t="str">
+            <v>US36467J1088</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37" t="str">
+            <v>US41068X1000</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38" t="str">
+            <v>US42226K1051</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39" t="str">
+            <v>US42250P1030</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40" t="str">
+            <v>US4312841087</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41" t="str">
+            <v>US44107P1049</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42" t="str">
+            <v>US44267T1025</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43" t="str">
+            <v>US45378A1060</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44" t="str">
+            <v>US46187W1071</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45" t="str">
+            <v>US46284V1017</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46" t="str">
+            <v>US48020Q1076</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47" t="str">
+            <v>US49427F1084</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48" t="str">
+            <v>US49446R1095</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49" t="str">
+            <v>US49803T3005</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50" t="str">
+            <v>US5128161099</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51" t="str">
+            <v>US5290434084</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52" t="str">
+            <v>US5543821012</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53" t="str">
+            <v>US58463J3041</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54" t="str">
+            <v>US59522J1034</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55" t="str">
+            <v>US6011371027</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56" t="str">
+            <v>US63633D1046</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57" t="str">
+            <v>US65158N1028</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58" t="str">
+            <v>US6374171063</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59" t="str">
+            <v>US6819361006</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60" t="str">
+            <v>US6837121036</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61" t="str">
+            <v>US69007J3041</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62" t="str">
+            <v>US71844V2016</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63" t="str">
+            <v>US7376301039</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64" t="str">
+            <v>US74340W1036</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65" t="str">
+            <v>US74460D1090</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66" t="str">
+            <v>US7549071030</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67" t="str">
+            <v>US7561091049</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68" t="str">
+            <v>US7588491032</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69" t="str">
+            <v>US76169C1009</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70" t="str">
+            <v>US78377T1079</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71" t="str">
+            <v>US78573L1061</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72" t="str">
+            <v>US78410G1040</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73" t="str">
+            <v>US8288061091</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74" t="str">
+            <v>US78440X8873</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75" t="str">
+            <v>US7901481009</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76" t="str">
+            <v>US85254J1025</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77" t="str">
+            <v>US8666741041</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78" t="str">
+            <v>US8754651060</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79" t="str">
+            <v>US88146M1018</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80" t="str">
+            <v>US9026531049</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81" t="str">
+            <v>US91704F1049</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82" t="str">
+            <v>US92276F1003</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83" t="str">
+            <v>US9256521090</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84" t="str">
+            <v>US9290421091</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85" t="str">
+            <v>US95040Q1040</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86" t="str">
+            <v>US9621661043</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87" t="str">
+            <v>US92936U1097</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88" t="str">
+            <v>US98954M1018</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89" t="str">
+            <v>US98954M2008</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -729,7 +1226,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -763,6 +1260,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -797,9 +1295,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -972,14 +1471,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H90"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1005,7 +1506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1030,8 +1531,12 @@
       <c r="H2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="b">
+        <f>ISNUMBER(MATCH(B2,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1056,8 +1561,12 @@
       <c r="H3" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="b">
+        <f>ISNUMBER(MATCH(B3,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1082,8 +1591,12 @@
       <c r="H4" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="b">
+        <f>ISNUMBER(MATCH(B4,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1621,12 @@
       <c r="H5" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="b">
+        <f>ISNUMBER(MATCH(B5,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1134,8 +1651,12 @@
       <c r="H6" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="b">
+        <f>ISNUMBER(MATCH(B6,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1160,8 +1681,12 @@
       <c r="H7" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="b">
+        <f>ISNUMBER(MATCH(B7,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1186,8 +1711,12 @@
       <c r="H8" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" t="b">
+        <f>ISNUMBER(MATCH(B8,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1212,8 +1741,12 @@
       <c r="H9" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" t="b">
+        <f>ISNUMBER(MATCH(B9,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1238,8 +1771,12 @@
       <c r="H10" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" t="b">
+        <f>ISNUMBER(MATCH(B10,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1264,8 +1801,12 @@
       <c r="H11" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" t="b">
+        <f>ISNUMBER(MATCH(B11,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1290,8 +1831,12 @@
       <c r="H12" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" t="b">
+        <f>ISNUMBER(MATCH(B12,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1316,8 +1861,12 @@
       <c r="H13" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" t="b">
+        <f>ISNUMBER(MATCH(B13,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1342,8 +1891,12 @@
       <c r="H14" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" t="b">
+        <f>ISNUMBER(MATCH(B14,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1368,8 +1921,12 @@
       <c r="H15" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" t="b">
+        <f>ISNUMBER(MATCH(B15,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1394,8 +1951,12 @@
       <c r="H16" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" t="b">
+        <f>ISNUMBER(MATCH(B16,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1420,8 +1981,12 @@
       <c r="H17" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" t="b">
+        <f>ISNUMBER(MATCH(B17,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1446,8 +2011,12 @@
       <c r="H18" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" t="b">
+        <f>ISNUMBER(MATCH(B18,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1472,8 +2041,12 @@
       <c r="H19" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" t="b">
+        <f>ISNUMBER(MATCH(B19,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1498,8 +2071,12 @@
       <c r="H20" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" t="b">
+        <f>ISNUMBER(MATCH(B20,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1524,8 +2101,12 @@
       <c r="H21" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" t="b">
+        <f>ISNUMBER(MATCH(B21,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1550,8 +2131,12 @@
       <c r="H22" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" t="b">
+        <f>ISNUMBER(MATCH(B22,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1576,8 +2161,12 @@
       <c r="H23" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" t="b">
+        <f>ISNUMBER(MATCH(B23,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1602,8 +2191,12 @@
       <c r="H24" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" t="b">
+        <f>ISNUMBER(MATCH(B24,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1628,8 +2221,12 @@
       <c r="H25" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" t="b">
+        <f>ISNUMBER(MATCH(B25,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1654,8 +2251,12 @@
       <c r="H26" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" t="b">
+        <f>ISNUMBER(MATCH(B26,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1680,8 +2281,12 @@
       <c r="H27" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" t="b">
+        <f>ISNUMBER(MATCH(B27,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1706,8 +2311,12 @@
       <c r="H28" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" t="b">
+        <f>ISNUMBER(MATCH(B28,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1732,8 +2341,12 @@
       <c r="H29" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" t="b">
+        <f>ISNUMBER(MATCH(B29,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1758,8 +2371,12 @@
       <c r="H30" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" t="b">
+        <f>ISNUMBER(MATCH(B30,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1784,8 +2401,12 @@
       <c r="H31" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" t="b">
+        <f>ISNUMBER(MATCH(B31,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1810,8 +2431,12 @@
       <c r="H32" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" t="b">
+        <f>ISNUMBER(MATCH(B32,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1836,8 +2461,12 @@
       <c r="H33" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" t="b">
+        <f>ISNUMBER(MATCH(B33,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -1862,8 +2491,12 @@
       <c r="H34" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34" t="b">
+        <f>ISNUMBER(MATCH(B34,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -1888,8 +2521,12 @@
       <c r="H35" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35" t="b">
+        <f>ISNUMBER(MATCH(B35,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -1914,8 +2551,12 @@
       <c r="H36" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36" t="b">
+        <f>ISNUMBER(MATCH(B36,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2581,12 @@
       <c r="H37" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37" t="b">
+        <f>ISNUMBER(MATCH(B37,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1966,8 +2611,12 @@
       <c r="H38" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38" t="b">
+        <f>ISNUMBER(MATCH(B38,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -1992,8 +2641,12 @@
       <c r="H39" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" t="b">
+        <f>ISNUMBER(MATCH(B39,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2018,8 +2671,12 @@
       <c r="H40" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40" t="b">
+        <f>ISNUMBER(MATCH(B40,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -2044,8 +2701,12 @@
       <c r="H41" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41" t="b">
+        <f>ISNUMBER(MATCH(B41,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -2070,8 +2731,12 @@
       <c r="H42" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42" t="b">
+        <f>ISNUMBER(MATCH(B42,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -2096,8 +2761,12 @@
       <c r="H43" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43" t="b">
+        <f>ISNUMBER(MATCH(B43,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -2122,8 +2791,12 @@
       <c r="H44" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44" t="b">
+        <f>ISNUMBER(MATCH(B44,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -2148,8 +2821,12 @@
       <c r="H45" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45" t="b">
+        <f>ISNUMBER(MATCH(B45,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2174,8 +2851,12 @@
       <c r="H46" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46" t="b">
+        <f>ISNUMBER(MATCH(B46,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -2200,8 +2881,12 @@
       <c r="H47" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47" t="b">
+        <f>ISNUMBER(MATCH(B47,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -2226,8 +2911,12 @@
       <c r="H48" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48" t="b">
+        <f>ISNUMBER(MATCH(B48,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -2252,8 +2941,12 @@
       <c r="H49" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49" t="b">
+        <f>ISNUMBER(MATCH(B49,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -2278,8 +2971,12 @@
       <c r="H50" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50" t="b">
+        <f>ISNUMBER(MATCH(B50,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -2304,8 +3001,12 @@
       <c r="H51" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51" t="b">
+        <f>ISNUMBER(MATCH(B51,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -2330,8 +3031,12 @@
       <c r="H52" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52" t="b">
+        <f>ISNUMBER(MATCH(B52,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -2356,8 +3061,12 @@
       <c r="H53" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="I53" t="b">
+        <f>ISNUMBER(MATCH(B53,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -2382,8 +3091,12 @@
       <c r="H54" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="I54" t="b">
+        <f>ISNUMBER(MATCH(B54,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -2408,8 +3121,12 @@
       <c r="H55" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="I55" t="b">
+        <f>ISNUMBER(MATCH(B55,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -2434,8 +3151,12 @@
       <c r="H56" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="I56" t="b">
+        <f>ISNUMBER(MATCH(B56,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -2460,8 +3181,12 @@
       <c r="H57" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57" t="b">
+        <f>ISNUMBER(MATCH(B57,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -2486,8 +3211,12 @@
       <c r="H58" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="I58" t="b">
+        <f>ISNUMBER(MATCH(B58,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -2512,8 +3241,12 @@
       <c r="H59" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="I59" t="b">
+        <f>ISNUMBER(MATCH(B59,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -2538,8 +3271,12 @@
       <c r="H60" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="I60" t="b">
+        <f>ISNUMBER(MATCH(B60,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -2564,8 +3301,12 @@
       <c r="H61" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="I61" t="b">
+        <f>ISNUMBER(MATCH(B61,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -2590,8 +3331,12 @@
       <c r="H62" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="I62" t="b">
+        <f>ISNUMBER(MATCH(B62,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -2616,8 +3361,12 @@
       <c r="H63" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="I63" t="b">
+        <f>ISNUMBER(MATCH(B63,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -2642,8 +3391,12 @@
       <c r="H64" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="I64" t="b">
+        <f>ISNUMBER(MATCH(B64,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -2668,8 +3421,12 @@
       <c r="H65" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="I65" t="b">
+        <f>ISNUMBER(MATCH(B65,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -2694,8 +3451,12 @@
       <c r="H66" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="I66" t="b">
+        <f>ISNUMBER(MATCH(B66,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -2720,8 +3481,12 @@
       <c r="H67" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="I67" t="b">
+        <f>ISNUMBER(MATCH(B67,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -2746,8 +3511,12 @@
       <c r="H68" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="I68" t="b">
+        <f>ISNUMBER(MATCH(B68,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -2772,8 +3541,12 @@
       <c r="H69" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="I69" t="b">
+        <f>ISNUMBER(MATCH(B69,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -2798,8 +3571,12 @@
       <c r="H70" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="I70" t="b">
+        <f>ISNUMBER(MATCH(B70,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -2824,8 +3601,12 @@
       <c r="H71" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="I71" t="b">
+        <f>ISNUMBER(MATCH(B71,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -2850,8 +3631,12 @@
       <c r="H72" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="I72" t="b">
+        <f>ISNUMBER(MATCH(B72,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -2876,8 +3661,12 @@
       <c r="H73" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="I73" t="b">
+        <f>ISNUMBER(MATCH(B73,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -2902,8 +3691,12 @@
       <c r="H74" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="I74" t="b">
+        <f>ISNUMBER(MATCH(B74,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -2928,8 +3721,12 @@
       <c r="H75" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="I75" t="b">
+        <f>ISNUMBER(MATCH(B75,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -2954,8 +3751,12 @@
       <c r="H76" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="I76" t="b">
+        <f>ISNUMBER(MATCH(B76,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -2980,8 +3781,12 @@
       <c r="H77" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="I77" t="b">
+        <f>ISNUMBER(MATCH(B77,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -3006,8 +3811,12 @@
       <c r="H78" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="I78" t="b">
+        <f>ISNUMBER(MATCH(B78,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -3032,8 +3841,12 @@
       <c r="H79" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="I79" t="b">
+        <f>ISNUMBER(MATCH(B79,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -3058,8 +3871,12 @@
       <c r="H80" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="I80" t="b">
+        <f>ISNUMBER(MATCH(B80,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -3084,8 +3901,12 @@
       <c r="H81" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="I81" t="b">
+        <f>ISNUMBER(MATCH(B81,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -3110,8 +3931,12 @@
       <c r="H82" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="I82" t="b">
+        <f>ISNUMBER(MATCH(B82,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -3136,8 +3961,12 @@
       <c r="H83" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="I83" t="b">
+        <f>ISNUMBER(MATCH(B83,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -3162,8 +3991,12 @@
       <c r="H84" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="I84" t="b">
+        <f>ISNUMBER(MATCH(B84,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -3188,8 +4021,12 @@
       <c r="H85" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="I85" t="b">
+        <f>ISNUMBER(MATCH(B85,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -3214,8 +4051,12 @@
       <c r="H86" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="I86" t="b">
+        <f>ISNUMBER(MATCH(B86,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -3240,8 +4081,12 @@
       <c r="H87" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="I87" t="b">
+        <f>ISNUMBER(MATCH(B87,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -3266,8 +4111,12 @@
       <c r="H88" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="I88" t="b">
+        <f>ISNUMBER(MATCH(B88,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -3292,8 +4141,12 @@
       <c r="H89" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="I89" t="b">
+        <f>ISNUMBER(MATCH(B89,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -3318,21 +4171,28 @@
       <c r="H90" t="s">
         <v>189</v>
       </c>
+      <c r="I90" t="b">
+        <f>ISNUMBER(MATCH(B90,'[1]Index Composition'!$B$2:$B$89,0))</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3343,7 +4203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -3354,7 +4214,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -3367,18 +4227,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3389,7 +4252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>190</v>
       </c>
@@ -3400,7 +4263,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>191</v>
       </c>
@@ -3411,7 +4274,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>192</v>
       </c>
@@ -3422,7 +4285,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>193</v>
       </c>
@@ -3433,7 +4296,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>194</v>
       </c>
@@ -3446,5 +4309,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/GUI + Reviews/202512/Review 202512/Dataiku/EUREP_EMS_2025-12-11_2025-12-11-23-29-39.xlsx
+++ b/GUI + Reviews/202512/Review 202512/Dataiku/EUREP_EMS_2025-12-11_2025-12-11-23-29-39.xlsx
@@ -1,39 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202512/Review 202512/Dataiku/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_06E32A6950EB6137A59DCD7639243A05E7961587" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9799DD8C-06C6-45A9-81B9-94883D6BC418}"/>
   <bookViews>
-    <workbookView xWindow="-29370" yWindow="195" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="selection" sheetId="1" r:id="rId1"/>
     <sheet name="inclusion" sheetId="2" r:id="rId2"/>
     <sheet name="exclusion" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -643,8 +621,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -707,488 +685,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Index Composition"/>
-      <sheetName val="Eligible Companies"/>
-      <sheetName val="Inclusion"/>
-      <sheetName val="Exclusion"/>
-      <sheetName val="Full Universe"/>
-      <sheetName val="Index Market Cap"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>US0042391096</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>US0084921008</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>US0152711091</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>US3981823038</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>US02665T3068</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>US03027X1000</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>US03064D1081</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>US03784Y2000</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>US0534841012</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>US11120U1051</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>US11135E2037</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13" t="str">
-            <v>US1011211018</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14" t="str">
-            <v>US1331311027</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15" t="str">
-            <v>US14174T1079</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16" t="str">
-            <v>US12504L1098</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17" t="str">
-            <v>US20464U1007</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18" t="str">
-            <v>US22002T1088</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19" t="str">
-            <v>US22160N1090</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20" t="str">
-            <v>US2227955026</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21" t="str">
-            <v>US22822V1017</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22" t="str">
-            <v>US2296631094</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23" t="str">
-            <v>US2538681030</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24" t="str">
-            <v>US2772761019</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25" t="str">
-            <v>US26884U1097</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26" t="str">
-            <v>US29444U7000</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27" t="str">
-            <v>US29472R1086</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28" t="str">
-            <v>US29476L1070</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29" t="str">
-            <v>US29670E1073</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30" t="str">
-            <v>US2971781057</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31" t="str">
-            <v>US30225T1025</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32" t="str">
-            <v>US3137451015</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33" t="str">
-            <v>US3149111086</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34" t="str">
-            <v>US32054K1034</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35" t="str">
-            <v>US35086T1097</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36" t="str">
-            <v>US36467J1088</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37" t="str">
-            <v>US41068X1000</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38" t="str">
-            <v>US42226K1051</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39" t="str">
-            <v>US42250P1030</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40" t="str">
-            <v>US4312841087</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41" t="str">
-            <v>US44107P1049</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42" t="str">
-            <v>US44267T1025</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43" t="str">
-            <v>US45378A1060</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44" t="str">
-            <v>US46187W1071</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45" t="str">
-            <v>US46284V1017</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46" t="str">
-            <v>US48020Q1076</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47" t="str">
-            <v>US49427F1084</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48" t="str">
-            <v>US49446R1095</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49" t="str">
-            <v>US49803T3005</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50" t="str">
-            <v>US5128161099</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51" t="str">
-            <v>US5290434084</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52" t="str">
-            <v>US5543821012</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53" t="str">
-            <v>US58463J3041</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54" t="str">
-            <v>US59522J1034</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55" t="str">
-            <v>US6011371027</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56" t="str">
-            <v>US63633D1046</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57" t="str">
-            <v>US65158N1028</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="B58" t="str">
-            <v>US6374171063</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="B59" t="str">
-            <v>US6819361006</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="B60" t="str">
-            <v>US6837121036</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="B61" t="str">
-            <v>US69007J3041</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="B62" t="str">
-            <v>US71844V2016</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="B63" t="str">
-            <v>US7376301039</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="B64" t="str">
-            <v>US74340W1036</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="B65" t="str">
-            <v>US74460D1090</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="B66" t="str">
-            <v>US7549071030</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="B67" t="str">
-            <v>US7561091049</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="B68" t="str">
-            <v>US7588491032</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="B69" t="str">
-            <v>US76169C1009</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="B70" t="str">
-            <v>US78377T1079</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="B71" t="str">
-            <v>US78573L1061</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="B72" t="str">
-            <v>US78410G1040</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="B73" t="str">
-            <v>US8288061091</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="B74" t="str">
-            <v>US78440X8873</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="B75" t="str">
-            <v>US7901481009</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="B76" t="str">
-            <v>US85254J1025</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="B77" t="str">
-            <v>US8666741041</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="B78" t="str">
-            <v>US8754651060</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="B79" t="str">
-            <v>US88146M1018</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="B80" t="str">
-            <v>US9026531049</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="B81" t="str">
-            <v>US91704F1049</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="B82" t="str">
-            <v>US92276F1003</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="B83" t="str">
-            <v>US9256521090</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="B84" t="str">
-            <v>US9290421091</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="B85" t="str">
-            <v>US95040Q1040</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="B86" t="str">
-            <v>US9621661043</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="B87" t="str">
-            <v>US92936U1097</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="B88" t="str">
-            <v>US98954M1018</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="B89" t="str">
-            <v>US98954M2008</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1226,7 +729,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1260,7 +763,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1295,10 +797,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1471,16 +972,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I90"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1506,7 +1005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1531,12 +1030,8 @@
       <c r="H2" t="s">
         <v>189</v>
       </c>
-      <c r="I2" t="b">
-        <f>ISNUMBER(MATCH(B2,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1561,12 +1056,8 @@
       <c r="H3" t="s">
         <v>189</v>
       </c>
-      <c r="I3" t="b">
-        <f>ISNUMBER(MATCH(B3,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1591,12 +1082,8 @@
       <c r="H4" t="s">
         <v>189</v>
       </c>
-      <c r="I4" t="b">
-        <f>ISNUMBER(MATCH(B4,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1621,12 +1108,8 @@
       <c r="H5" t="s">
         <v>189</v>
       </c>
-      <c r="I5" t="b">
-        <f>ISNUMBER(MATCH(B5,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1651,12 +1134,8 @@
       <c r="H6" t="s">
         <v>189</v>
       </c>
-      <c r="I6" t="b">
-        <f>ISNUMBER(MATCH(B6,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1681,12 +1160,8 @@
       <c r="H7" t="s">
         <v>189</v>
       </c>
-      <c r="I7" t="b">
-        <f>ISNUMBER(MATCH(B7,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1711,12 +1186,8 @@
       <c r="H8" t="s">
         <v>189</v>
       </c>
-      <c r="I8" t="b">
-        <f>ISNUMBER(MATCH(B8,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1741,12 +1212,8 @@
       <c r="H9" t="s">
         <v>189</v>
       </c>
-      <c r="I9" t="b">
-        <f>ISNUMBER(MATCH(B9,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1771,12 +1238,8 @@
       <c r="H10" t="s">
         <v>189</v>
       </c>
-      <c r="I10" t="b">
-        <f>ISNUMBER(MATCH(B10,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1801,12 +1264,8 @@
       <c r="H11" t="s">
         <v>189</v>
       </c>
-      <c r="I11" t="b">
-        <f>ISNUMBER(MATCH(B11,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1831,12 +1290,8 @@
       <c r="H12" t="s">
         <v>189</v>
       </c>
-      <c r="I12" t="b">
-        <f>ISNUMBER(MATCH(B12,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1861,12 +1316,8 @@
       <c r="H13" t="s">
         <v>189</v>
       </c>
-      <c r="I13" t="b">
-        <f>ISNUMBER(MATCH(B13,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1891,12 +1342,8 @@
       <c r="H14" t="s">
         <v>189</v>
       </c>
-      <c r="I14" t="b">
-        <f>ISNUMBER(MATCH(B14,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1921,12 +1368,8 @@
       <c r="H15" t="s">
         <v>189</v>
       </c>
-      <c r="I15" t="b">
-        <f>ISNUMBER(MATCH(B15,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1951,12 +1394,8 @@
       <c r="H16" t="s">
         <v>189</v>
       </c>
-      <c r="I16" t="b">
-        <f>ISNUMBER(MATCH(B16,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1981,12 +1420,8 @@
       <c r="H17" t="s">
         <v>189</v>
       </c>
-      <c r="I17" t="b">
-        <f>ISNUMBER(MATCH(B17,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -2011,12 +1446,8 @@
       <c r="H18" t="s">
         <v>189</v>
       </c>
-      <c r="I18" t="b">
-        <f>ISNUMBER(MATCH(B18,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -2041,12 +1472,8 @@
       <c r="H19" t="s">
         <v>189</v>
       </c>
-      <c r="I19" t="b">
-        <f>ISNUMBER(MATCH(B19,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -2071,12 +1498,8 @@
       <c r="H20" t="s">
         <v>189</v>
       </c>
-      <c r="I20" t="b">
-        <f>ISNUMBER(MATCH(B20,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -2101,12 +1524,8 @@
       <c r="H21" t="s">
         <v>189</v>
       </c>
-      <c r="I21" t="b">
-        <f>ISNUMBER(MATCH(B21,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -2131,12 +1550,8 @@
       <c r="H22" t="s">
         <v>189</v>
       </c>
-      <c r="I22" t="b">
-        <f>ISNUMBER(MATCH(B22,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -2161,12 +1576,8 @@
       <c r="H23" t="s">
         <v>189</v>
       </c>
-      <c r="I23" t="b">
-        <f>ISNUMBER(MATCH(B23,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -2191,12 +1602,8 @@
       <c r="H24" t="s">
         <v>189</v>
       </c>
-      <c r="I24" t="b">
-        <f>ISNUMBER(MATCH(B24,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2221,12 +1628,8 @@
       <c r="H25" t="s">
         <v>189</v>
       </c>
-      <c r="I25" t="b">
-        <f>ISNUMBER(MATCH(B25,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -2251,12 +1654,8 @@
       <c r="H26" t="s">
         <v>189</v>
       </c>
-      <c r="I26" t="b">
-        <f>ISNUMBER(MATCH(B26,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -2281,12 +1680,8 @@
       <c r="H27" t="s">
         <v>189</v>
       </c>
-      <c r="I27" t="b">
-        <f>ISNUMBER(MATCH(B27,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -2311,12 +1706,8 @@
       <c r="H28" t="s">
         <v>189</v>
       </c>
-      <c r="I28" t="b">
-        <f>ISNUMBER(MATCH(B28,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -2341,12 +1732,8 @@
       <c r="H29" t="s">
         <v>189</v>
       </c>
-      <c r="I29" t="b">
-        <f>ISNUMBER(MATCH(B29,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -2371,12 +1758,8 @@
       <c r="H30" t="s">
         <v>189</v>
       </c>
-      <c r="I30" t="b">
-        <f>ISNUMBER(MATCH(B30,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -2401,12 +1784,8 @@
       <c r="H31" t="s">
         <v>189</v>
       </c>
-      <c r="I31" t="b">
-        <f>ISNUMBER(MATCH(B31,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -2431,12 +1810,8 @@
       <c r="H32" t="s">
         <v>189</v>
       </c>
-      <c r="I32" t="b">
-        <f>ISNUMBER(MATCH(B32,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -2461,12 +1836,8 @@
       <c r="H33" t="s">
         <v>189</v>
       </c>
-      <c r="I33" t="b">
-        <f>ISNUMBER(MATCH(B33,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -2491,12 +1862,8 @@
       <c r="H34" t="s">
         <v>189</v>
       </c>
-      <c r="I34" t="b">
-        <f>ISNUMBER(MATCH(B34,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -2521,12 +1888,8 @@
       <c r="H35" t="s">
         <v>189</v>
       </c>
-      <c r="I35" t="b">
-        <f>ISNUMBER(MATCH(B35,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -2551,12 +1914,8 @@
       <c r="H36" t="s">
         <v>189</v>
       </c>
-      <c r="I36" t="b">
-        <f>ISNUMBER(MATCH(B36,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -2581,12 +1940,8 @@
       <c r="H37" t="s">
         <v>189</v>
       </c>
-      <c r="I37" t="b">
-        <f>ISNUMBER(MATCH(B37,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -2611,12 +1966,8 @@
       <c r="H38" t="s">
         <v>189</v>
       </c>
-      <c r="I38" t="b">
-        <f>ISNUMBER(MATCH(B38,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -2641,12 +1992,8 @@
       <c r="H39" t="s">
         <v>189</v>
       </c>
-      <c r="I39" t="b">
-        <f>ISNUMBER(MATCH(B39,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2671,12 +2018,8 @@
       <c r="H40" t="s">
         <v>189</v>
       </c>
-      <c r="I40" t="b">
-        <f>ISNUMBER(MATCH(B40,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -2701,12 +2044,8 @@
       <c r="H41" t="s">
         <v>189</v>
       </c>
-      <c r="I41" t="b">
-        <f>ISNUMBER(MATCH(B41,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -2731,12 +2070,8 @@
       <c r="H42" t="s">
         <v>189</v>
       </c>
-      <c r="I42" t="b">
-        <f>ISNUMBER(MATCH(B42,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -2761,12 +2096,8 @@
       <c r="H43" t="s">
         <v>189</v>
       </c>
-      <c r="I43" t="b">
-        <f>ISNUMBER(MATCH(B43,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -2791,12 +2122,8 @@
       <c r="H44" t="s">
         <v>189</v>
       </c>
-      <c r="I44" t="b">
-        <f>ISNUMBER(MATCH(B44,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -2821,12 +2148,8 @@
       <c r="H45" t="s">
         <v>189</v>
       </c>
-      <c r="I45" t="b">
-        <f>ISNUMBER(MATCH(B45,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2851,12 +2174,8 @@
       <c r="H46" t="s">
         <v>189</v>
       </c>
-      <c r="I46" t="b">
-        <f>ISNUMBER(MATCH(B46,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -2881,12 +2200,8 @@
       <c r="H47" t="s">
         <v>189</v>
       </c>
-      <c r="I47" t="b">
-        <f>ISNUMBER(MATCH(B47,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -2911,12 +2226,8 @@
       <c r="H48" t="s">
         <v>189</v>
       </c>
-      <c r="I48" t="b">
-        <f>ISNUMBER(MATCH(B48,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -2941,12 +2252,8 @@
       <c r="H49" t="s">
         <v>189</v>
       </c>
-      <c r="I49" t="b">
-        <f>ISNUMBER(MATCH(B49,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -2971,12 +2278,8 @@
       <c r="H50" t="s">
         <v>189</v>
       </c>
-      <c r="I50" t="b">
-        <f>ISNUMBER(MATCH(B50,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -3001,12 +2304,8 @@
       <c r="H51" t="s">
         <v>189</v>
       </c>
-      <c r="I51" t="b">
-        <f>ISNUMBER(MATCH(B51,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -3031,12 +2330,8 @@
       <c r="H52" t="s">
         <v>189</v>
       </c>
-      <c r="I52" t="b">
-        <f>ISNUMBER(MATCH(B52,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -3061,12 +2356,8 @@
       <c r="H53" t="s">
         <v>189</v>
       </c>
-      <c r="I53" t="b">
-        <f>ISNUMBER(MATCH(B53,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -3091,12 +2382,8 @@
       <c r="H54" t="s">
         <v>189</v>
       </c>
-      <c r="I54" t="b">
-        <f>ISNUMBER(MATCH(B54,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -3121,12 +2408,8 @@
       <c r="H55" t="s">
         <v>189</v>
       </c>
-      <c r="I55" t="b">
-        <f>ISNUMBER(MATCH(B55,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -3151,12 +2434,8 @@
       <c r="H56" t="s">
         <v>189</v>
       </c>
-      <c r="I56" t="b">
-        <f>ISNUMBER(MATCH(B56,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -3181,12 +2460,8 @@
       <c r="H57" t="s">
         <v>189</v>
       </c>
-      <c r="I57" t="b">
-        <f>ISNUMBER(MATCH(B57,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -3211,12 +2486,8 @@
       <c r="H58" t="s">
         <v>189</v>
       </c>
-      <c r="I58" t="b">
-        <f>ISNUMBER(MATCH(B58,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -3241,12 +2512,8 @@
       <c r="H59" t="s">
         <v>189</v>
       </c>
-      <c r="I59" t="b">
-        <f>ISNUMBER(MATCH(B59,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -3271,12 +2538,8 @@
       <c r="H60" t="s">
         <v>189</v>
       </c>
-      <c r="I60" t="b">
-        <f>ISNUMBER(MATCH(B60,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -3301,12 +2564,8 @@
       <c r="H61" t="s">
         <v>189</v>
       </c>
-      <c r="I61" t="b">
-        <f>ISNUMBER(MATCH(B61,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -3331,12 +2590,8 @@
       <c r="H62" t="s">
         <v>189</v>
       </c>
-      <c r="I62" t="b">
-        <f>ISNUMBER(MATCH(B62,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -3361,12 +2616,8 @@
       <c r="H63" t="s">
         <v>189</v>
       </c>
-      <c r="I63" t="b">
-        <f>ISNUMBER(MATCH(B63,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -3391,12 +2642,8 @@
       <c r="H64" t="s">
         <v>189</v>
       </c>
-      <c r="I64" t="b">
-        <f>ISNUMBER(MATCH(B64,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -3421,12 +2668,8 @@
       <c r="H65" t="s">
         <v>189</v>
       </c>
-      <c r="I65" t="b">
-        <f>ISNUMBER(MATCH(B65,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -3451,12 +2694,8 @@
       <c r="H66" t="s">
         <v>189</v>
       </c>
-      <c r="I66" t="b">
-        <f>ISNUMBER(MATCH(B66,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -3481,12 +2720,8 @@
       <c r="H67" t="s">
         <v>189</v>
       </c>
-      <c r="I67" t="b">
-        <f>ISNUMBER(MATCH(B67,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -3511,12 +2746,8 @@
       <c r="H68" t="s">
         <v>189</v>
       </c>
-      <c r="I68" t="b">
-        <f>ISNUMBER(MATCH(B68,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -3541,12 +2772,8 @@
       <c r="H69" t="s">
         <v>189</v>
       </c>
-      <c r="I69" t="b">
-        <f>ISNUMBER(MATCH(B69,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -3571,12 +2798,8 @@
       <c r="H70" t="s">
         <v>189</v>
       </c>
-      <c r="I70" t="b">
-        <f>ISNUMBER(MATCH(B70,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -3601,12 +2824,8 @@
       <c r="H71" t="s">
         <v>189</v>
       </c>
-      <c r="I71" t="b">
-        <f>ISNUMBER(MATCH(B71,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -3631,12 +2850,8 @@
       <c r="H72" t="s">
         <v>189</v>
       </c>
-      <c r="I72" t="b">
-        <f>ISNUMBER(MATCH(B72,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -3661,12 +2876,8 @@
       <c r="H73" t="s">
         <v>189</v>
       </c>
-      <c r="I73" t="b">
-        <f>ISNUMBER(MATCH(B73,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -3691,12 +2902,8 @@
       <c r="H74" t="s">
         <v>189</v>
       </c>
-      <c r="I74" t="b">
-        <f>ISNUMBER(MATCH(B74,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -3721,12 +2928,8 @@
       <c r="H75" t="s">
         <v>189</v>
       </c>
-      <c r="I75" t="b">
-        <f>ISNUMBER(MATCH(B75,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -3751,12 +2954,8 @@
       <c r="H76" t="s">
         <v>189</v>
       </c>
-      <c r="I76" t="b">
-        <f>ISNUMBER(MATCH(B76,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -3781,12 +2980,8 @@
       <c r="H77" t="s">
         <v>189</v>
       </c>
-      <c r="I77" t="b">
-        <f>ISNUMBER(MATCH(B77,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -3811,12 +3006,8 @@
       <c r="H78" t="s">
         <v>189</v>
       </c>
-      <c r="I78" t="b">
-        <f>ISNUMBER(MATCH(B78,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -3841,12 +3032,8 @@
       <c r="H79" t="s">
         <v>189</v>
       </c>
-      <c r="I79" t="b">
-        <f>ISNUMBER(MATCH(B79,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -3871,12 +3058,8 @@
       <c r="H80" t="s">
         <v>189</v>
       </c>
-      <c r="I80" t="b">
-        <f>ISNUMBER(MATCH(B80,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -3901,12 +3084,8 @@
       <c r="H81" t="s">
         <v>189</v>
       </c>
-      <c r="I81" t="b">
-        <f>ISNUMBER(MATCH(B81,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -3931,12 +3110,8 @@
       <c r="H82" t="s">
         <v>189</v>
       </c>
-      <c r="I82" t="b">
-        <f>ISNUMBER(MATCH(B82,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -3961,12 +3136,8 @@
       <c r="H83" t="s">
         <v>189</v>
       </c>
-      <c r="I83" t="b">
-        <f>ISNUMBER(MATCH(B83,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -3991,12 +3162,8 @@
       <c r="H84" t="s">
         <v>189</v>
       </c>
-      <c r="I84" t="b">
-        <f>ISNUMBER(MATCH(B84,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -4021,12 +3188,8 @@
       <c r="H85" t="s">
         <v>189</v>
       </c>
-      <c r="I85" t="b">
-        <f>ISNUMBER(MATCH(B85,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -4051,12 +3214,8 @@
       <c r="H86" t="s">
         <v>189</v>
       </c>
-      <c r="I86" t="b">
-        <f>ISNUMBER(MATCH(B86,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -4081,12 +3240,8 @@
       <c r="H87" t="s">
         <v>189</v>
       </c>
-      <c r="I87" t="b">
-        <f>ISNUMBER(MATCH(B87,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -4111,12 +3266,8 @@
       <c r="H88" t="s">
         <v>189</v>
       </c>
-      <c r="I88" t="b">
-        <f>ISNUMBER(MATCH(B88,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -4141,12 +3292,8 @@
       <c r="H89" t="s">
         <v>189</v>
       </c>
-      <c r="I89" t="b">
-        <f>ISNUMBER(MATCH(B89,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -4171,28 +3318,21 @@
       <c r="H90" t="s">
         <v>189</v>
       </c>
-      <c r="I90" t="b">
-        <f>ISNUMBER(MATCH(B90,'[1]Index Composition'!$B$2:$B$89,0))</f>
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4203,7 +3343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -4214,7 +3354,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -4227,21 +3367,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4252,7 +3389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>190</v>
       </c>
@@ -4263,7 +3400,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>191</v>
       </c>
@@ -4274,7 +3411,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>192</v>
       </c>
@@ -4285,7 +3422,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>193</v>
       </c>
@@ -4296,7 +3433,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>194</v>
       </c>
@@ -4309,8 +3446,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>